--- a/studies/elsa/dto_ELSA.xlsx
+++ b/studies/elsa/dto_ELSA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>version</t>
   </si>
@@ -132,12 +132,30 @@
   </si>
   <si>
     <t>wave_count</t>
+  </si>
+  <si>
+    <t>model_3</t>
+  </si>
+  <si>
+    <t>model_4</t>
+  </si>
+  <si>
+    <t>model_5</t>
+  </si>
+  <si>
+    <t>model_6</t>
+  </si>
+  <si>
+    <t>model_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,11 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,6 +231,10 @@
       <alignment textRotation="60" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,12 +536,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -528,106 +549,106 @@
     <col min="1" max="1" width="9.28515625" style="1"/>
     <col min="2" max="2" width="3.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="1"/>
     <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" style="1"/>
     <col min="13" max="18" width="6.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="6.42578125" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="24" width="6.42578125" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="6.42578125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="24" width="6.42578125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="25" max="28" width="9.28515625" style="1"/>
     <col min="29" max="29" width="11" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -641,16 +662,16 @@
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="12">
         <v>42048</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="1">
@@ -670,50 +691,50 @@
       </c>
       <c r="M2" s="2">
         <f t="shared" ref="M2:X3" ca="1" si="0">RAND()</f>
-        <v>0.9066492498690828</v>
+        <v>0.95733431208295094</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9269984570972839</v>
+        <v>0.73871581508128259</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.989751240262839E-2</v>
+        <v>0.34824213679840921</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34432340444952769</v>
+        <v>0.28788343827790397</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70783720988484466</v>
+        <v>0.87069212060051226</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57829440906078999</v>
-      </c>
-      <c r="S2" s="9">
+        <v>0.35285384772413375</v>
+      </c>
+      <c r="S2" s="8">
         <v>0.34</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <f ca="1">RAND()</f>
-        <v>0.66533735247109427</v>
-      </c>
-      <c r="U2" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56679763783366655</v>
-      </c>
-      <c r="V2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2541413334148079E-2</v>
-      </c>
-      <c r="W2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3061944377101913E-2</v>
-      </c>
-      <c r="X2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42558195614842209</v>
+        <v>0.55618594955055267</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95913158684148769</v>
+      </c>
+      <c r="V2" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57014744653045102</v>
+      </c>
+      <c r="W2" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63099808028640147</v>
+      </c>
+      <c r="X2" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74007102278757042</v>
       </c>
       <c r="Y2" s="1" t="b">
         <v>0</v>
@@ -732,16 +753,16 @@
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>42049</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.65625</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="1">
@@ -761,53 +782,78 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74435404275754569</v>
+        <v>0.89335647607889246</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87117737416844787</v>
+        <v>0.34191339953947286</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89080688849538037</v>
+        <v>7.2697496703496678E-2</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80600102344952462</v>
+        <v>0.73507950137907696</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27604348419314684</v>
+        <v>0.31461934101931255</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8334060574735482E-2</v>
-      </c>
-      <c r="S3" s="9">
+        <v>0.58619232038187186</v>
+      </c>
+      <c r="S3" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <f ca="1">RAND()</f>
-        <v>0.48734137814628842</v>
-      </c>
-      <c r="U3" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9333006517063516E-2</v>
-      </c>
-      <c r="V3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.914844239757358E-2</v>
-      </c>
-      <c r="W3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81126773755932646</v>
-      </c>
-      <c r="X3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5052104152596858</v>
+        <v>0.42913951026402841</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37582921189900576</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6079208041251198E-2</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39117997551384853</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40651109521201789</v>
       </c>
       <c r="Y3" s="1" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +861,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>values!$C$2:$C$3</xm:f>
